--- a/data/partner_list.xlsx
+++ b/data/partner_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50529AB-535B-4D50-B2EE-646F3C4AD9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="28830" yWindow="480" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -35,13 +41,18 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>123abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,42 +119,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -154,10 +182,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -195,71 +223,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -287,7 +315,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -310,11 +338,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -323,13 +351,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -339,7 +367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -348,7 +376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -357,7 +385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -365,10 +393,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -433,23 +461,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="38.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +493,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -475,6 +509,9 @@
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/partner_list.xlsx
+++ b/data/partner_list.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50529AB-535B-4D50-B2EE-646F3C4AD9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9726672-5010-4AC7-969E-1652497E196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0BEFC-C2F8-407D-9864-E3077427F7F2}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="480" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,22 +39,22 @@
     <t>Email</t>
   </si>
   <si>
+    <t>WhatsApp Number</t>
+  </si>
+  <si>
+    <t>Work Location</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>gagan.agarwal@pillp.in</t>
+  </si>
+  <si>
+    <t>Gagan Agarwal</t>
+  </si>
+  <si>
     <t>Partner Name</t>
-  </si>
-  <si>
-    <t>WhatsApp Number</t>
-  </si>
-  <si>
-    <t>Work Location</t>
-  </si>
-  <si>
-    <t>gagan.agarwal@pillp.in</t>
-  </si>
-  <si>
-    <t>Gagan Agarwal</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>Password</t>
@@ -53,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,30 +76,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,66 +117,62 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -212,20 +219,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -253,14 +260,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -288,6 +312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -299,222 +340,200 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405C5FD-C42B-4446-8626-82A3F1CB1FF5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9830685072</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>8145312848</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F0BACAD1-C63C-471E-9327-6829B8E28C27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/partner_list.xlsx
+++ b/data/partner_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9726672-5010-4AC7-969E-1652497E196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0BEFC-C2F8-407D-9864-E3077427F7F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134B32E-56A0-4F0E-8473-B554E307BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>9830685072</v>
+        <v>8145312848</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>

--- a/data/partner_list.xlsx
+++ b/data/partner_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134B32E-56A0-4F0E-8473-B554E307BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9726672-5010-4AC7-969E-1652497E196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0BEFC-C2F8-407D-9864-E3077427F7F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>8145312848</v>
+        <v>9830685072</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>

--- a/data/partner_list.xlsx
+++ b/data/partner_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9726672-5010-4AC7-969E-1652497E196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0BEFC-C2F8-407D-9864-E3077427F7F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319E123-D3C2-4552-B980-E5F61D8F599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>9830685072</v>
+        <v>8145312848</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>

--- a/data/partner_list.xlsx
+++ b/data/partner_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaScript Projects\leave-management-system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319E123-D3C2-4552-B980-E5F61D8F599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9726672-5010-4AC7-969E-1652497E196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0BEFC-C2F8-407D-9864-E3077427F7F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>8145312848</v>
+        <v>9830685072</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>

--- a/data/partner_list.xlsx
+++ b/data/partner_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad6921c7f953aa9b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C9726672-5010-4AC7-969E-1652497E196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0BEFC-C2F8-407D-9864-E3077427F7F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6262EE-D3F4-4F8C-86B3-60AB7D3FC052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8568A0C6-7A0B-4563-8214-738C8136B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>123abc</t>
+    <t>Sitaram@55</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,7 +163,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +487,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +529,7 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
